--- a/Final data for the script.xlsx
+++ b/Final data for the script.xlsx
@@ -53133,8 +53133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53202,7 +53202,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>38</v>
@@ -53225,7 +53225,7 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G4">
         <v>44</v>
@@ -53248,7 +53248,7 @@
         <v>23</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G5">
         <v>49</v>
@@ -53271,7 +53271,7 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G6">
         <v>50</v>
@@ -53294,7 +53294,7 @@
         <v>32</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="G7">
         <v>53</v>
@@ -53317,7 +53317,7 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>58</v>
@@ -53340,7 +53340,7 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G9">
         <v>60</v>
@@ -53363,7 +53363,7 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>66</v>
@@ -53386,7 +53386,7 @@
         <v>45</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>69</v>
@@ -53409,7 +53409,7 @@
         <v>48</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>72</v>
@@ -53432,7 +53432,7 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>77</v>
@@ -53455,7 +53455,7 @@
         <v>55</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="G14">
         <v>77</v>
@@ -53478,7 +53478,7 @@
         <v>58</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="G15">
         <v>79</v>
@@ -53501,7 +53501,7 @@
         <v>61</v>
       </c>
       <c r="F16">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G16">
         <v>81</v>
@@ -53524,7 +53524,7 @@
         <v>64</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="G17">
         <v>83</v>
@@ -53547,7 +53547,7 @@
         <v>67</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="G18">
         <v>86</v>
@@ -53570,7 +53570,7 @@
         <v>70</v>
       </c>
       <c r="F19">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="G19">
         <v>87</v>
@@ -53593,7 +53593,7 @@
         <v>72</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G20">
         <v>89</v>
@@ -53616,7 +53616,7 @@
         <v>75</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="G21">
         <v>90</v>
@@ -53639,7 +53639,7 @@
         <v>77</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="G22">
         <v>92</v>
@@ -53662,7 +53662,7 @@
         <v>79</v>
       </c>
       <c r="F23">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="G23">
         <v>93</v>
@@ -53685,7 +53685,7 @@
         <v>82</v>
       </c>
       <c r="F24">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G24">
         <v>94</v>
@@ -53708,7 +53708,7 @@
         <v>85</v>
       </c>
       <c r="F25">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="G25">
         <v>95</v>
@@ -53731,7 +53731,7 @@
         <v>87</v>
       </c>
       <c r="F26">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="G26">
         <v>96</v>
@@ -53754,7 +53754,7 @@
         <v>88</v>
       </c>
       <c r="F27">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="G27">
         <v>97</v>
@@ -53777,7 +53777,7 @@
         <v>92</v>
       </c>
       <c r="F28">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="G28">
         <v>98</v>
@@ -53800,7 +53800,7 @@
         <v>94</v>
       </c>
       <c r="F29">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="G29">
         <v>98</v>
@@ -53823,7 +53823,7 @@
         <v>97</v>
       </c>
       <c r="F30">
-        <v>28</v>
+        <v>99</v>
       </c>
       <c r="G30">
         <v>99</v>
@@ -53846,7 +53846,7 @@
         <v>99</v>
       </c>
       <c r="F31">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="G31">
         <v>99</v>
@@ -53869,7 +53869,7 @@
         <v>99</v>
       </c>
       <c r="F32">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="G32">
         <v>99</v>
